--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1816.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1816.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.224712176251352</v>
+        <v>1.011056780815125</v>
       </c>
       <c r="B1">
-        <v>2.32094065201682</v>
+        <v>1.259087800979614</v>
       </c>
       <c r="C1">
-        <v>3.127421983927182</v>
+        <v>5.613296508789062</v>
       </c>
       <c r="D1">
-        <v>3.614185170154546</v>
+        <v>1.653684496879578</v>
       </c>
       <c r="E1">
-        <v>1.329416554657052</v>
+        <v>1.011772513389587</v>
       </c>
     </row>
   </sheetData>
